--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/TuS Langenholthausen 2.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/TuS Langenholthausen 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>firstName</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Bonner</t>
   </si>
   <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Collard</t>
+  </si>
+  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -56,6 +62,18 @@
   </si>
   <si>
     <t>Ollesch</t>
+  </si>
+  <si>
+    <t>Benedikt</t>
+  </si>
+  <si>
+    <t>Schulte</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Schwartpaul</t>
   </si>
   <si>
     <t>Daniel</t>
@@ -134,11 +152,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -206,7 +224,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -217,10 +235,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -231,10 +249,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -245,7 +263,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -296,6 +314,48 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
